--- a/test_data/cai/modify_accounting_book_info_data.xlsx
+++ b/test_data/cai/modify_accounting_book_info_data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>北京有序科技有限公司</t>
     <rPh sb="0" eb="1">
@@ -404,6 +404,82 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>di zhi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>10292/128772</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京有序科技</t>
+    <rPh sb="0" eb="1">
+      <t>bei jing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>you xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <rPh sb="0" eb="1">
+      <t>guang dong sheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市</t>
+    <rPh sb="0" eb="1">
+      <t>shen zhen shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>福田区</t>
+    <rPh sb="0" eb="1">
+      <t>fu tian qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <rPh sb="0" eb="1">
+      <t>a li ba ba</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江省</t>
+    <rPh sb="0" eb="1">
+      <t>zhe jiang sheng</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杭州市</t>
+    <rPh sb="0" eb="1">
+      <t>hang zhou shi</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>余杭区</t>
+    <rPh sb="0" eb="1">
+      <t>yu hang qu</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>文一西路969号</t>
+  </si>
+  <si>
+    <t>xxx路</t>
+    <rPh sb="3" eb="4">
+      <t>lu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -793,14 +869,14 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
@@ -878,7 +954,28 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>93993</v>
+      </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
@@ -890,7 +987,28 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="5"/>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>92929</v>
+      </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
